--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4C288-5665-4C62-8A38-579DC0B4CBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9404841-870C-4FEE-B579-5579E735213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="196">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2890,7 +2890,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3625,9 @@
       <c r="P17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="29"/>
+      <c r="Q17" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="R17" s="29" t="s">
         <v>83</v>
       </c>
@@ -10741,27 +10743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11019,32 +11000,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11061,4 +11038,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9404841-870C-4FEE-B579-5579E735213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBBBD9-089F-429A-9A91-F665576DF5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,18 +678,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>b281f1f990a2d56a9fcb8c95e69f7752</t>
-  </si>
-  <si>
-    <t>2025-04-22T14:22:12Z</t>
-  </si>
-  <si>
-    <t>2025-04-22T14:48:43Z</t>
-  </si>
-  <si>
-    <t>1650cf3bcd68f9a137c2444d5cc80ac4</t>
-  </si>
-  <si>
     <t>Viene segnalato un errore di connessione al servizio dovuto alla mancanza del campo purpose_of_use nel token JWT. Si richiede l'intervento dell'amministratore di sistema, che aggiungerà nella configurazione del gestionale i parametri per la generazione dei token JWT corretti.</t>
   </si>
   <si>
@@ -714,36 +702,9 @@
     <t>Viene segnalato L'errore "Il codice fiscale deve essere registrato con tutti i caratteri alfabetici scritti in maiuscolo". Si invita l'operatore a verificare la scheda anagrafica delpaziente per correggere l'anomalia.</t>
   </si>
   <si>
-    <t>9cf7d2d42c097ebc174d15abd2a83191</t>
-  </si>
-  <si>
-    <t>2025-04-22T17:02:48Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7f0b49cfd78f29454957296812f7dc32b85c3f6ba91830af67c90b17eebe481f.1a1135c715^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bc6c1e69a1d2d6063df6681884874e15</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a33e3b4024b5ddef892eb838d35dfe0772dd943a6d555cdb7e183614c4f1c7d1.f407d34943^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T17:08:17Z</t>
-  </si>
-  <si>
     <t>Errore semantico: [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.</t>
   </si>
   <si>
-    <t>d1db17e24c844e426c44c384a6c9c521</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d4c090ee001f04c671095e817d0256fbe21ef66be33f9063751cb4a3013facd7.4e44f1007a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T17:16:43Z</t>
-  </si>
-  <si>
     <t>Errore semantico: [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
   </si>
   <si>
@@ -759,60 +720,9 @@
     <t>L'utente viene avvisato circa l'anomalia e può inviare nuovamente il referto senza questa sezione opzionale oppure codificare correttamente il dato nelle configurazioni del tecnico</t>
   </si>
   <si>
-    <t>5a62b9c37a17aed97e2f71db284ad105</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e623101dfb14dcec941deb2b0ffdf6268b3648be60d317113fd04309116c1f61.8ed5ebc0f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T18:15:17Z</t>
-  </si>
-  <si>
-    <t>"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.","status":400</t>
-  </si>
-  <si>
-    <t>83458c2b8f4c5a95c7079886cef327e8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9189ceabb05cace4f66624d3cfc3f6f5a7c976f297a4969708c22477974d6496.ba0cca5ffd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T19:03:55Z</t>
-  </si>
-  <si>
-    <t>"Errore di sintassi.", "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.", "status": 400</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.901c78db8ebef8f1c9a66d60a2b3490965ce0ab46ca97d8ac1daad17ccb5ecad.e52de018a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2475adedf09f5e950701a6146b76c424</t>
-  </si>
-  <si>
-    <t>2025-04-22T19:20:22Z</t>
-  </si>
-  <si>
-    <t>d3a1e1b87fb5fd81618c2b8db205b5f3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.55452c66b07d3da40fcd06b4df43fc5f6c0ffd33f3efd4605e2d91d907129724.e0b2491bd7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T19:44:24Z</t>
-  </si>
-  <si>
     <t>Errore semantico: [ERRORE-b4| Sezione Referto: DEVE essere presente la sezione \"Referto\".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
   </si>
   <si>
-    <t>46071b2f10fc5689408a46a5f67ccfc9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.daa835d700035727c31a54ff32a26015069c809c5ebe3c8e6ba94fc986c49243.f3ecba90b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore di sintassi.,"detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400</t>
-  </si>
-  <si>
     <t>L'utente viene avvisato della mancanza del codice identificativo della prestazione ed invitato a verificare il dato contattando l'amministratore di sistema</t>
   </si>
   <si>
@@ -822,16 +732,106 @@
     <t>L'utente viene avvisato sulla mancata disponibilità dell'informazione circa il livello di riservatezza del referto ed invitato a verificare il dato contattando l'amministratore di sistema</t>
   </si>
   <si>
-    <t>2025-04-22T20:17:12Z</t>
-  </si>
-  <si>
-    <t>200dcbb34164a7efc48fa5feff2a3c9e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7200b04a6367c215ce3da7cc684a29ec7cbb601db5eb7b7ad802224b9a47da6b.d02332a0dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-22T20:48:59Z</t>
+    <t>2025-05-08T22:44:01Z</t>
+  </si>
+  <si>
+    <t>0e876e4bff23cae1bc6890ea3354c0cf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e17c1c0e773c0b66af5a692859d4bb0c381811bd6e77cdc802678dbc846fd273.6c60527102^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>30aa9149620dbb378f1070b5436c5629</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bfccb28f11e0199b9f8ca4183ee06f25c6be3ce26d5434635785afb67fe58096.0f47b94583^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-08T22:56:26Z</t>
+  </si>
+  <si>
+    <t>7a84bddfaff496c505dc74e999abce8f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.7c448f23cb265d3a0eaee9170d2104312cf08950280691e4c1025cc9386059a6.004627ac0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:00:41Z</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:04:46Z</t>
+  </si>
+  <si>
+    <t>6f2136f49734c592e337d62c62b23706</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3be2b8a17ceccc3c86f781ac655d586cd707feee58f452ef748871b67ddda424.fd753377cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>70bc07c9479f256a48b7581ebfb7a81d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.c60d7ff1ab06f16d1f8a30b7859a4865acdffc80e0e1559ec34bcbfa0e2c736f.61fe28a7e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:13:14Z</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:27:14Z</t>
+  </si>
+  <si>
+    <t>b0a0e48547cb09455e1a73215c395ba9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f64e260f801c49bbc5c8a663897a2cbe33d016003895dc1c92bae5defe94cb3d.4eeed6cec2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:46:51Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f3396b06dea7a6be809ae4c012abf10a5409d4b23544bcf8fe3c582c83eff256.e0b36b8255^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5763a6f94262a8e4ab3845dca1a5cb38</t>
+  </si>
+  <si>
+    <t>9896e8eed83f6dc4274ee1e9063fc645</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ecf37b5d8fd3845ab6b3d46859433fce51157db6d2fe127abe67f8a3c57f4b3b.006142b132^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-08T23:56:27Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.99b609a8601241e42aebb05d2bcf1dfac8ab88afe6465521525ef7befd7d376c.15d730e8b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ff9436773d4e71bd64b3f914d52b50ae</t>
+  </si>
+  <si>
+    <t>2025-05-09T00:11:43Z</t>
+  </si>
+  <si>
+    <t>2025-05-09T00:20:22Z</t>
+  </si>
+  <si>
+    <t>73acd1ca262d2427cff7561c2cc88db3</t>
+  </si>
+  <si>
+    <t>f6cac67c86dfbc0a478a2ceb7db8adc7</t>
+  </si>
+  <si>
+    <t>2025-05-09T00:22:22Z</t>
+  </si>
+  <si>
+    <t>Errore di sintassi: ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.</t>
+  </si>
+  <si>
+    <t>Errore di sintassi:ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.</t>
+  </si>
+  <si>
+    <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
 </sst>
 </file>
@@ -841,11 +841,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1291,156 +1298,157 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1739,7 +1747,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,7 +2898,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2911,6 +2919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
       <c r="C1" s="4"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3194,13 +3203,13 @@
         <v>44</v>
       </c>
       <c r="F10" s="33">
-        <v>45769</v>
+        <v>45786</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>143</v>
@@ -3217,7 +3226,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>51</v>
@@ -3229,7 +3238,7 @@
         <v>83</v>
       </c>
       <c r="S10" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="34"/>
@@ -3255,13 +3264,13 @@
         <v>49</v>
       </c>
       <c r="F11" s="33">
-        <v>45769</v>
+        <v>45786</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="I11" s="37" t="s">
         <v>143</v>
@@ -3278,7 +3287,7 @@
         <v>51</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P11" s="29" t="s">
         <v>51</v>
@@ -3290,7 +3299,7 @@
         <v>83</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T11" s="29"/>
       <c r="U11" s="34"/>
@@ -3316,10 +3325,9 @@
         <v>95</v>
       </c>
       <c r="F12" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
       <c r="I12" s="37"/>
       <c r="J12" s="29" t="s">
         <v>51</v>
@@ -3333,7 +3341,7 @@
         <v>51</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>51</v>
@@ -3345,7 +3353,7 @@
         <v>83</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="34" t="s">
@@ -3373,16 +3381,16 @@
         <v>107</v>
       </c>
       <c r="F13" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J13" s="29" t="s">
         <v>51</v>
@@ -3396,7 +3404,7 @@
         <v>51</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P13" s="29" t="s">
         <v>51</v>
@@ -3408,7 +3416,7 @@
         <v>83</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T13" s="29"/>
       <c r="U13" s="34"/>
@@ -3434,16 +3442,16 @@
         <v>55</v>
       </c>
       <c r="F14" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>51</v>
@@ -3457,7 +3465,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P14" s="29" t="s">
         <v>51</v>
@@ -3469,7 +3477,7 @@
         <v>83</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="34"/>
@@ -3495,16 +3503,16 @@
         <v>108</v>
       </c>
       <c r="F15" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>51</v>
@@ -3518,7 +3526,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>51</v>
@@ -3530,7 +3538,7 @@
         <v>83</v>
       </c>
       <c r="S15" s="29" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="T15" s="29"/>
       <c r="U15" s="34"/>
@@ -3597,16 +3605,16 @@
         <v>110</v>
       </c>
       <c r="F17" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G17" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>172</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>51</v>
@@ -3620,7 +3628,7 @@
         <v>51</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P17" s="29" t="s">
         <v>51</v>
@@ -3632,7 +3640,7 @@
         <v>83</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="T17" s="29"/>
       <c r="U17" s="34"/>
@@ -3699,16 +3707,16 @@
         <v>61</v>
       </c>
       <c r="F19" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>176</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>51</v>
@@ -3722,7 +3730,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>51</v>
@@ -3734,7 +3742,7 @@
         <v>83</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
@@ -3760,13 +3768,13 @@
         <v>63</v>
       </c>
       <c r="F20" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>179</v>
@@ -3782,8 +3790,8 @@
       <c r="N20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="42" t="s">
-        <v>178</v>
+      <c r="O20" s="56" t="s">
+        <v>193</v>
       </c>
       <c r="P20" s="29" t="s">
         <v>51</v>
@@ -3795,7 +3803,7 @@
         <v>83</v>
       </c>
       <c r="S20" s="29" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="34"/>
@@ -3821,16 +3829,16 @@
         <v>112</v>
       </c>
       <c r="F21" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>182</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>51</v>
@@ -3844,7 +3852,7 @@
         <v>51</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="P21" s="29" t="s">
         <v>51</v>
@@ -3856,7 +3864,7 @@
         <v>83</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="T21" s="29"/>
       <c r="U21" s="34"/>
@@ -4210,16 +4218,16 @@
         <v>105</v>
       </c>
       <c r="F30" s="33">
-        <v>45769</v>
+        <v>45785</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -4298,16 +4306,16 @@
         <v>129</v>
       </c>
       <c r="F32" s="33">
-        <v>45769</v>
+        <v>45786</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>51</v>
@@ -4321,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P32" s="29" t="s">
         <v>51</v>
@@ -4333,7 +4341,7 @@
         <v>83</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="T32" s="31"/>
       <c r="U32" s="31"/>
@@ -8469,7 +8477,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -8480,13 +8488,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10 M10:N10 P10:R10 J11 M11:N11 P11:R11 P12:R32 J12:J31 M12:N32</xm:sqref>
+          <xm:sqref>P10:R32 J10:J31 M10:N32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10 T11 T12:T31</xm:sqref>
+          <xm:sqref>T10:T31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>

--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lavoro\Sviluppo\Health.NET Code\FSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBBBD9-089F-429A-9A91-F665576DF5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9118F806-9D2D-4CAB-9E35-3FE968393F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -795,15 +795,6 @@
     <t>5763a6f94262a8e4ab3845dca1a5cb38</t>
   </si>
   <si>
-    <t>9896e8eed83f6dc4274ee1e9063fc645</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ecf37b5d8fd3845ab6b3d46859433fce51157db6d2fe127abe67f8a3c57f4b3b.006142b132^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-08T23:56:27Z</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.99b609a8601241e42aebb05d2bcf1dfac8ab88afe6465521525ef7befd7d376c.15d730e8b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -832,6 +823,15 @@
   </si>
   <si>
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
+  </si>
+  <si>
+    <t>2025-06-04T14:52:45Z</t>
+  </si>
+  <si>
+    <t>675216eaea45e47d631eda1d14c226b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.eab18fa55c676f013713d473f2fa7530e50717d8a7e6687c15bf66b3c5f7f1cb.5bc6aabf23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1412,6 +1412,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1446,9 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2895,10 +2895,10 @@
   <dimension ref="A1:W597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2941,14 +2941,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2969,14 +2969,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2997,12 +2997,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3024,12 +3024,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3050,8 +3050,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3206,10 +3206,10 @@
         <v>45786</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>143</v>
@@ -3267,10 +3267,10 @@
         <v>45786</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I11" s="37" t="s">
         <v>143</v>
@@ -3730,7 +3730,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>51</v>
@@ -3790,8 +3790,8 @@
       <c r="N20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="56" t="s">
-        <v>193</v>
+      <c r="O20" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="P20" s="29" t="s">
         <v>51</v>
@@ -4218,16 +4218,16 @@
         <v>105</v>
       </c>
       <c r="F30" s="33">
-        <v>45785</v>
+        <v>45812</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -4309,13 +4309,13 @@
         <v>45786</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>51</v>
@@ -4329,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P32" s="29" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lavoro\Sviluppo\Health.NET Code\FSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9118F806-9D2D-4CAB-9E35-3FE968393F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246205A-FAFC-469B-A877-5319A5CB46A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,13 +825,13 @@
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
-    <t>2025-06-04T14:52:45Z</t>
-  </si>
-  <si>
-    <t>675216eaea45e47d631eda1d14c226b3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.eab18fa55c676f013713d473f2fa7530e50717d8a7e6687c15bf66b3c5f7f1cb.5bc6aabf23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-06-19T14:26:40Z</t>
+  </si>
+  <si>
+    <t>633c87ae7985a0fd71cf297bc1c50fda</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37165d2e4c0a943485b755b229ae923c77d4dcaf62c02274c6cdb64b359900cf.1a23547554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2895,10 +2895,10 @@
   <dimension ref="A1:W597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4218,7 +4218,7 @@
         <v>105</v>
       </c>
       <c r="F30" s="33">
-        <v>45812</v>
+        <v>45827</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>193</v>
@@ -10751,6 +10751,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11008,28 +11029,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11046,29 +11071,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246205A-FAFC-469B-A877-5319A5CB46A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E6934-5E8C-4D9A-9B07-EDD21A638021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -825,13 +825,13 @@
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
-    <t>2025-06-19T14:26:40Z</t>
-  </si>
-  <si>
-    <t>633c87ae7985a0fd71cf297bc1c50fda</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37165d2e4c0a943485b755b229ae923c77d4dcaf62c02274c6cdb64b359900cf.1a23547554^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-06-25T08:49:57Z</t>
+  </si>
+  <si>
+    <t>96b420b065a7f1c01874ea35eed49580</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.72421086d62e3cc2bf95c2fbf883e816587b312510c4839aad1d815dbe90e1a0.92b140d03e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2898,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4218,7 +4218,7 @@
         <v>105</v>
       </c>
       <c r="F30" s="33">
-        <v>45827</v>
+        <v>45833</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>193</v>
@@ -10751,6 +10751,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -10760,15 +10769,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11030,6 +11030,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -11042,14 +11050,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111DHARMAHEALTHCAREXX/DHARMA/HNRIS/0.1/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E6934-5E8C-4D9A-9B07-EDD21A638021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EE2F8E-6BD8-493A-8F9D-5FD859F3E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,13 +825,13 @@
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
-    <t>2025-06-25T08:49:57Z</t>
-  </si>
-  <si>
-    <t>96b420b065a7f1c01874ea35eed49580</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.72421086d62e3cc2bf95c2fbf883e816587b312510c4839aad1d815dbe90e1a0.92b140d03e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ea5fc7867f7a91b95c9cc4cc874fda845bc8fdc4304ef808a8593dee89bfa584.1c35c60ee8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e97bc80087521153f347dc7ca39932ff</t>
+  </si>
+  <si>
+    <t>2025-06-29T21:26:19Z</t>
   </si>
 </sst>
 </file>
@@ -4218,16 +4218,16 @@
         <v>105</v>
       </c>
       <c r="F30" s="33">
-        <v>45833</v>
+        <v>45837</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>194</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>51</v>
@@ -8479,8 +8479,8 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -10751,27 +10751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11029,10 +11008,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11055,20 +11066,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>